--- a/SchedulingData/dynamic12/pso/scheduling2_12.xlsx
+++ b/SchedulingData/dynamic12/pso/scheduling2_12.xlsx
@@ -462,59 +462,59 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>271.48</v>
+        <v>224.9</v>
       </c>
       <c r="D2" t="n">
-        <v>356.68</v>
+        <v>288.34</v>
       </c>
       <c r="E2" t="n">
-        <v>12.892</v>
+        <v>11.836</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>356.68</v>
+        <v>219.12</v>
       </c>
       <c r="D3" t="n">
-        <v>393.58</v>
+        <v>270.68</v>
       </c>
       <c r="E3" t="n">
-        <v>10.332</v>
+        <v>12.752</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>393.58</v>
+        <v>270.68</v>
       </c>
       <c r="D4" t="n">
-        <v>462.52</v>
+        <v>329.08</v>
       </c>
       <c r="E4" t="n">
-        <v>7.028</v>
+        <v>9.032</v>
       </c>
     </row>
     <row r="5">
@@ -523,136 +523,136 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>221.58</v>
+        <v>209.56</v>
       </c>
       <c r="D5" t="n">
-        <v>257.08</v>
+        <v>267.86</v>
       </c>
       <c r="E5" t="n">
-        <v>14.972</v>
+        <v>15.724</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>236.88</v>
+        <v>216.14</v>
       </c>
       <c r="D6" t="n">
-        <v>290.18</v>
+        <v>253.34</v>
       </c>
       <c r="E6" t="n">
-        <v>11.172</v>
+        <v>15.656</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>257.08</v>
+        <v>221.4</v>
       </c>
       <c r="D7" t="n">
-        <v>304</v>
+        <v>298.48</v>
       </c>
       <c r="E7" t="n">
-        <v>12.42</v>
+        <v>14.292</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>304</v>
+        <v>298.48</v>
       </c>
       <c r="D8" t="n">
-        <v>380.7</v>
+        <v>344.38</v>
       </c>
       <c r="E8" t="n">
-        <v>9.34</v>
+        <v>11.812</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>462.52</v>
+        <v>267.86</v>
       </c>
       <c r="D9" t="n">
-        <v>504.16</v>
+        <v>310.66</v>
       </c>
       <c r="E9" t="n">
-        <v>4.004</v>
+        <v>13.564</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>222.38</v>
+        <v>229.52</v>
       </c>
       <c r="D10" t="n">
-        <v>279.68</v>
+        <v>289.26</v>
       </c>
       <c r="E10" t="n">
-        <v>15.492</v>
+        <v>12.224</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>249.66</v>
+        <v>289.26</v>
       </c>
       <c r="D11" t="n">
-        <v>318.1</v>
+        <v>326.08</v>
       </c>
       <c r="E11" t="n">
-        <v>14.78</v>
+        <v>9.672000000000001</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -660,13 +660,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>290.18</v>
+        <v>253.34</v>
       </c>
       <c r="D12" t="n">
-        <v>336.62</v>
+        <v>309.58</v>
       </c>
       <c r="E12" t="n">
-        <v>8.148</v>
+        <v>12.632</v>
       </c>
     </row>
     <row r="13">
@@ -679,70 +679,70 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>336.62</v>
+        <v>326.08</v>
       </c>
       <c r="D13" t="n">
-        <v>396.24</v>
+        <v>375.6</v>
       </c>
       <c r="E13" t="n">
-        <v>5.816</v>
+        <v>7.34</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>279.68</v>
+        <v>375.6</v>
       </c>
       <c r="D14" t="n">
-        <v>334.78</v>
+        <v>449.66</v>
       </c>
       <c r="E14" t="n">
-        <v>11.112</v>
+        <v>4.064</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>215.6</v>
+        <v>288.34</v>
       </c>
       <c r="D15" t="n">
-        <v>289.86</v>
+        <v>340.84</v>
       </c>
       <c r="E15" t="n">
-        <v>13.104</v>
+        <v>8.715999999999999</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>289.86</v>
+        <v>309.58</v>
       </c>
       <c r="D16" t="n">
-        <v>341.96</v>
+        <v>345.08</v>
       </c>
       <c r="E16" t="n">
-        <v>10.024</v>
+        <v>10.212</v>
       </c>
     </row>
     <row r="17">
@@ -755,165 +755,165 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>318.1</v>
+        <v>345.08</v>
       </c>
       <c r="D17" t="n">
-        <v>353.16</v>
+        <v>375.24</v>
       </c>
       <c r="E17" t="n">
-        <v>12.404</v>
+        <v>7.836</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>334.78</v>
+        <v>329.08</v>
       </c>
       <c r="D18" t="n">
-        <v>378.42</v>
+        <v>401.78</v>
       </c>
       <c r="E18" t="n">
-        <v>7.888</v>
+        <v>5.392</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>380.7</v>
+        <v>340.84</v>
       </c>
       <c r="D19" t="n">
-        <v>432.36</v>
+        <v>395.94</v>
       </c>
       <c r="E19" t="n">
-        <v>5.804</v>
+        <v>4.336</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>353.16</v>
+        <v>449.66</v>
       </c>
       <c r="D20" t="n">
-        <v>426.16</v>
+        <v>498.1</v>
       </c>
       <c r="E20" t="n">
-        <v>8.683999999999999</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>341.96</v>
+        <v>498.1</v>
       </c>
       <c r="D21" t="n">
-        <v>394.46</v>
+        <v>597.92</v>
       </c>
       <c r="E21" t="n">
-        <v>7.864</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>426.16</v>
+        <v>310.66</v>
       </c>
       <c r="D22" t="n">
-        <v>522.58</v>
+        <v>380.26</v>
       </c>
       <c r="E22" t="n">
-        <v>5.612</v>
+        <v>10.204</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>396.24</v>
+        <v>344.38</v>
       </c>
       <c r="D23" t="n">
-        <v>441.14</v>
+        <v>390.92</v>
       </c>
       <c r="E23" t="n">
-        <v>2.456</v>
+        <v>8.788</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>394.46</v>
+        <v>390.92</v>
       </c>
       <c r="D24" t="n">
-        <v>473.66</v>
+        <v>446.84</v>
       </c>
       <c r="E24" t="n">
-        <v>5.024</v>
+        <v>5.316</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>504.16</v>
+        <v>401.78</v>
       </c>
       <c r="D25" t="n">
-        <v>558.48</v>
+        <v>459.04</v>
       </c>
       <c r="E25" t="n">
-        <v>1.672</v>
+        <v>2.796</v>
       </c>
     </row>
     <row r="26">
@@ -922,17 +922,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>558.48</v>
+        <v>446.84</v>
       </c>
       <c r="D26" t="n">
-        <v>631.9400000000001</v>
+        <v>486.36</v>
       </c>
       <c r="E26" t="n">
-        <v>30</v>
+        <v>2.984</v>
       </c>
     </row>
     <row r="27">
@@ -941,74 +941,74 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>378.42</v>
+        <v>395.94</v>
       </c>
       <c r="D27" t="n">
-        <v>430.62</v>
+        <v>443.74</v>
       </c>
       <c r="E27" t="n">
-        <v>4.808</v>
+        <v>2.176</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>432.36</v>
+        <v>459.04</v>
       </c>
       <c r="D28" t="n">
-        <v>478.26</v>
+        <v>525.45</v>
       </c>
       <c r="E28" t="n">
-        <v>3.324</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>478.26</v>
+        <v>525.45</v>
       </c>
       <c r="D29" t="n">
-        <v>525.86</v>
+        <v>588.05</v>
       </c>
       <c r="E29" t="n">
-        <v>1.164</v>
+        <v>26.92</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>525.86</v>
+        <v>375.24</v>
       </c>
       <c r="D30" t="n">
-        <v>595.4299999999999</v>
+        <v>437.34</v>
       </c>
       <c r="E30" t="n">
-        <v>30</v>
+        <v>4.756</v>
       </c>
     </row>
   </sheetData>
